--- a/analyses/2019_data/2019_CG_datasheet.xlsx
+++ b/analyses/2019_data/2019_CG_datasheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/wildhellgarden/analyses/2019_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CatherineChamberlain/Documents/git/wildhellgarden/analyses/2019_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C7CE8-D709-0149-A6BD-D1355E9E80E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="4580" windowWidth="24360" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="5360" windowWidth="24360" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="2019_CG_datasheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019_CG_datasheet'!$A$1:$N$2035</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -820,28 +827,28 @@
     <t>4.22.2019</t>
   </si>
   <si>
-    <t>4.25.19</t>
+    <t>4.25.2019</t>
   </si>
   <si>
-    <t>4.29.19</t>
+    <t>4.29.2019</t>
   </si>
   <si>
-    <t>5.3.19</t>
+    <t>5.3.2019</t>
   </si>
   <si>
-    <t>5.15.19</t>
+    <t>5.7.2019</t>
   </si>
   <si>
-    <t>5.7.19</t>
+    <t>5.9.2019</t>
   </si>
   <si>
-    <t>5.9.19</t>
+    <t>5.15.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1641,15 +1648,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Q2035"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1088" sqref="A1088"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1702,13 +1709,13 @@
         <v>267</v>
       </c>
       <c r="O1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" t="s">
         <v>269</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>270</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -31319,7 +31326,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N2035" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:N2035">
     <filterColumn colId="1">
       <filters>
         <filter val="1"/>
